--- a/Microsoft Excel/Tanvir/Day 08.xlsx
+++ b/Microsoft Excel/Tanvir/Day 08.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tarato/Documents/GitHub/Spreadsheet/Microsoft Excel/Tanvir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394469F2-0256-4548-8FAB-639CA70B2BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422FF7BF-3CB4-834C-B1D5-2B2EE9B21EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{BB2E10B6-CFB2-454D-9089-886D7DFBC59A}"/>
   </bookViews>
